--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6222E005-9CBF-1341-B154-9AA34DCF368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A0969-3564-EA4F-9698-42C53B752DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,8 +1387,8 @@
   <dimension ref="A1:K1784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1780" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1785" sqref="A1785:G2059"/>
+      <pane ySplit="1" topLeftCell="A1576" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1566" sqref="B1566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="22" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
